--- a/biology/Zoologie/Copris_lunaris/Copris_lunaris.xlsx
+++ b/biology/Zoologie/Copris_lunaris/Copris_lunaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copris lunaris, le copris lunaire, est une espèce d'insectes coléoptères de la famille des Scarabaeidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est morphologiquement assez voisin des bousiers (mais ne fabrique pas de boules de bouse de vache). 
 Les mâles ont une longue « corne » sur la tête alors que les femelles ne laissent voir qu'une petite pointe échancrée.
@@ -546,7 +560,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence des bousiers qui forment des boules à partir des bouses pour y déposer leurs œufs, le Copris lunaris creuse, au contraire, des galeries sous les bouses dans lesquelles il enfouit de la matière sur laquelle les femelles déposent leurs œufs.
 Copris lunaris est un insecte stridulant très nettement. Il est réparti sur presque toute la France.
@@ -578,7 +594,9 @@
           <t>À ne pas confondre avec…</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>l'espèce relativement ressemblante : 
 Oryctes nasicornis.</t>
@@ -609,7 +627,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Copris belisama Schrank, 1798
